--- a/files/schedule_part_time.xlsx
+++ b/files/schedule_part_time.xlsx
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -260,6 +260,74 @@
       <right style="medium">
         <color rgb="00000000"/>
       </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top>
+        <color rgb="00000000"/>
+      </top>
+      <bottom>
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top>
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top>
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <top style="thin">
         <color rgb="00000000"/>
       </top>
@@ -271,6 +339,23 @@
       </diagonal>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="00000000"/>
       </left>
@@ -288,6 +373,23 @@
       </diagonal>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -297,6 +399,23 @@
       <top style="thin">
         <color rgb="00000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right>
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
@@ -305,15 +424,117 @@
       </diagonal>
     </border>
     <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="00000000"/>
       </left>
-      <right style="medium">
+      <right>
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom>
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right>
         <color rgb="00000000"/>
       </right>
       <top>
         <color rgb="00000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right>
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right>
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
       <bottom>
         <color rgb="00000000"/>
       </bottom>
@@ -322,16 +543,84 @@
       </diagonal>
     </border>
     <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom>
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top>
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="00000000"/>
       </left>
-      <right style="medium">
+      <right>
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right>
         <color rgb="00000000"/>
       </right>
       <top>
         <color rgb="00000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
       <diagonal>
@@ -345,245 +634,7 @@
       <right style="medium">
         <color rgb="00000000"/>
       </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
       <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
         <color rgb="00000000"/>
       </top>
       <bottom style="medium">
@@ -640,6 +691,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -667,13 +766,13 @@
         <color rgb="00000000"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left>
         <color rgb="00000000"/>
       </left>
       <right style="medium">
@@ -695,47 +794,10 @@
         <color rgb="00000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
-      </left>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -749,59 +811,14 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
       <right style="medium">
         <color rgb="00000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
       <diagonal/>
@@ -810,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -847,40 +864,40 @@
       <alignment horizontal="general" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -888,7 +905,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -896,66 +970,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1677,7 @@
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">         РАСПИСАНИЕ ЗАНЯТИЙ 22 - 23 ноября 2024 - 2025 учебного года</t>
+          <t xml:space="preserve">         РАСПИСАНИЕ ЗАНЯТИЙ 14 - 15 марта  2024 - 2025 учебного года</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
@@ -1924,678 +1977,694 @@
     <row r="9" ht="80.09999999999999" customHeight="1">
       <c r="A9" s="19" t="inlineStr">
         <is>
-          <t>Пятница, 22 ноября 2024 - 2025 гг</t>
+          <t xml:space="preserve">Пятница, 14 марта  </t>
         </is>
       </c>
       <c r="B9" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="inlineStr"/>
-      <c r="D9" s="20" t="inlineStr"/>
-      <c r="E9" s="20" t="inlineStr"/>
-      <c r="F9" s="20" t="inlineStr">
-        <is>
-          <t>ПЕРЕСДАЧА   16 - 00     Клиническое материаловедение Станишевская Д.Н.</t>
-        </is>
-      </c>
-      <c r="G9" s="20" t="inlineStr">
-        <is>
-          <t>ПЕРЕСДАЧА   16 - 00     Клиническое материаловедение Станишевская Д.Н.</t>
-        </is>
-      </c>
-      <c r="H9" s="20" t="inlineStr">
-        <is>
-          <t>ПЕРЕСДАЧА   16 - 00     Клиническое материаловедение Станишевская Д.Н.</t>
-        </is>
-      </c>
-      <c r="I9" s="20" t="inlineStr"/>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00                   Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00                Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="E9" s="21" t="inlineStr"/>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00                   Основы финансовой грамотности     Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00 Общественное здоровье и здравоохранение  Станишевская Д.Н.</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00 Общественное здоровье и здравоохранение  Станишевская Д.Н.</t>
+        </is>
+      </c>
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>16 - 00                   Основы финансовой грамотности     Кожевников В.Е.</t>
+        </is>
+      </c>
       <c r="J9" s="21" t="inlineStr">
         <is>
-          <t>МДК 03.01 Сестринское дело в системе первичной медико - санитарной помощи         Лукашкин И.В.</t>
+          <t>16 - 00                Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
         </is>
       </c>
       <c r="K9" s="22" t="inlineStr"/>
-      <c r="L9" s="20" t="inlineStr"/>
+      <c r="L9" s="21" t="inlineStr"/>
       <c r="M9" s="22" t="inlineStr"/>
       <c r="N9" s="22" t="inlineStr"/>
-      <c r="O9" s="20" t="inlineStr"/>
-      <c r="P9" s="20" t="inlineStr"/>
+      <c r="O9" s="23" t="inlineStr"/>
+      <c r="P9" s="21" t="inlineStr"/>
       <c r="Q9" s="22" t="inlineStr"/>
       <c r="R9" s="22" t="inlineStr"/>
-      <c r="S9" s="20" t="inlineStr"/>
-      <c r="T9" s="20" t="inlineStr"/>
-      <c r="U9" s="20" t="inlineStr"/>
-      <c r="V9" s="20" t="inlineStr"/>
+      <c r="S9" s="21" t="inlineStr"/>
+      <c r="T9" s="21" t="inlineStr"/>
+      <c r="U9" s="21" t="inlineStr"/>
+      <c r="V9" s="21" t="inlineStr"/>
       <c r="W9" s="22" t="inlineStr"/>
       <c r="X9" s="22" t="inlineStr"/>
-      <c r="Y9" s="23" t="inlineStr"/>
+      <c r="Y9" s="24" t="inlineStr"/>
     </row>
-    <row r="10" ht="80.09999999999999" customHeight="1" thickBot="1">
-      <c r="A10" s="24" t="n"/>
-      <c r="B10" s="20" t="n">
+    <row r="10" ht="80.09999999999999" customHeight="1">
+      <c r="A10" s="25" t="n"/>
+      <c r="B10" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="25" t="n"/>
-      <c r="D10" s="25" t="n"/>
-      <c r="E10" s="25" t="n"/>
-      <c r="F10" s="25" t="n"/>
-      <c r="G10" s="25" t="n"/>
-      <c r="H10" s="25" t="n"/>
-      <c r="I10" s="25" t="n"/>
-      <c r="J10" s="16" t="n"/>
-      <c r="K10" s="25" t="n"/>
-      <c r="L10" s="25" t="n"/>
-      <c r="M10" s="25" t="n"/>
-      <c r="N10" s="25" t="n"/>
-      <c r="O10" s="25" t="n"/>
-      <c r="P10" s="25" t="n"/>
-      <c r="Q10" s="25" t="n"/>
-      <c r="R10" s="25" t="n"/>
-      <c r="S10" s="25" t="n"/>
-      <c r="T10" s="25" t="n"/>
-      <c r="U10" s="25" t="n"/>
-      <c r="V10" s="25" t="n"/>
-      <c r="W10" s="25" t="n"/>
-      <c r="X10" s="25" t="n"/>
-      <c r="Y10" s="26" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="21" t="inlineStr"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+      <c r="S10" s="27" t="n"/>
+      <c r="T10" s="27" t="n"/>
+      <c r="U10" s="27" t="n"/>
+      <c r="V10" s="27" t="n"/>
+      <c r="W10" s="27" t="n"/>
+      <c r="X10" s="27" t="n"/>
+      <c r="Y10" s="28" t="n"/>
     </row>
     <row r="11" ht="80.09999999999999" customHeight="1">
-      <c r="A11" s="24" t="n"/>
-      <c r="B11" s="20" t="n">
+      <c r="A11" s="25" t="n"/>
+      <c r="B11" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="20" t="inlineStr"/>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="20" t="inlineStr"/>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 03.02 Здоровый образ жизни и профилактика заболеваний в разные возрастные периоды </t>
-        </is>
-      </c>
-      <c r="K11" s="22" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="22" t="inlineStr"/>
-      <c r="N11" s="22" t="inlineStr"/>
-      <c r="O11" s="20" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="22" t="inlineStr"/>
-      <c r="R11" s="27" t="inlineStr"/>
-      <c r="S11" s="20" t="inlineStr"/>
-      <c r="T11" s="21" t="inlineStr"/>
-      <c r="U11" s="21" t="inlineStr"/>
-      <c r="V11" s="21" t="inlineStr"/>
-      <c r="W11" s="22" t="inlineStr"/>
-      <c r="X11" s="22" t="inlineStr"/>
-      <c r="Y11" s="23" t="inlineStr"/>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="inlineStr">
+        <is>
+          <t>Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="inlineStr"/>
+      <c r="F11" s="26" t="inlineStr">
+        <is>
+          <t>Основы финансовой грамотности     Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ Общественное здоровье и здравоохранение  Станишевская Д.Н.           </t>
+        </is>
+      </c>
+      <c r="H11" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ Общественное здоровье и здравоохранение  Станишевская Д.Н.           </t>
+        </is>
+      </c>
+      <c r="I11" s="29" t="inlineStr">
+        <is>
+          <t>Основы финансовой грамотности     Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="J11" s="29" t="inlineStr">
+        <is>
+          <t>Основы латинского языка с медицинской терминологией    Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="inlineStr"/>
+      <c r="L11" s="26" t="inlineStr"/>
+      <c r="M11" s="30" t="inlineStr"/>
+      <c r="N11" s="30" t="inlineStr"/>
+      <c r="O11" s="31" t="inlineStr"/>
+      <c r="P11" s="26" t="inlineStr"/>
+      <c r="Q11" s="30" t="inlineStr"/>
+      <c r="R11" s="32" t="inlineStr"/>
+      <c r="S11" s="26" t="inlineStr"/>
+      <c r="T11" s="29" t="inlineStr"/>
+      <c r="U11" s="29" t="inlineStr"/>
+      <c r="V11" s="29" t="inlineStr"/>
+      <c r="W11" s="30" t="inlineStr"/>
+      <c r="X11" s="30" t="inlineStr"/>
+      <c r="Y11" s="33" t="inlineStr"/>
     </row>
     <row r="12" ht="80.09999999999999" customHeight="1" thickBot="1">
       <c r="A12" s="16" t="n"/>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="C12" s="25" t="n"/>
-      <c r="D12" s="25" t="n"/>
-      <c r="E12" s="25" t="n"/>
-      <c r="F12" s="25" t="n"/>
-      <c r="G12" s="25" t="n"/>
-      <c r="H12" s="25" t="n"/>
-      <c r="I12" s="25" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="16" t="n"/>
-      <c r="K12" s="25" t="n"/>
-      <c r="L12" s="25" t="n"/>
-      <c r="M12" s="25" t="n"/>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="25" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="25" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="34" t="inlineStr"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="16" t="n"/>
+      <c r="S12" s="27" t="n"/>
       <c r="T12" s="16" t="n"/>
       <c r="U12" s="16" t="n"/>
       <c r="V12" s="16" t="n"/>
-      <c r="W12" s="25" t="n"/>
-      <c r="X12" s="25" t="n"/>
-      <c r="Y12" s="26" t="n"/>
+      <c r="W12" s="27" t="n"/>
+      <c r="X12" s="27" t="n"/>
+      <c r="Y12" s="28" t="n"/>
     </row>
     <row r="13" ht="80.09999999999999" customHeight="1">
       <c r="A13" s="19" t="inlineStr">
         <is>
-          <t>Суббота, 23 ноября 2024 - 2025 гг</t>
-        </is>
-      </c>
-      <c r="B13" s="28" t="n">
+          <t xml:space="preserve">Суббота, 15 марта </t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="D13" s="28" t="inlineStr"/>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>МДК 02.02 Технология изготовления несъемных и бюгельных протезов          Малервейн А.В.</t>
-        </is>
-      </c>
-      <c r="F13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="G13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="H13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="I13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="J13" s="21" t="inlineStr">
-        <is>
-          <t>МДК 03.01 Сестринское дело в системе первичной медико - санитарной помощи         Лукашкин И.В.</t>
-        </is>
-      </c>
-      <c r="K13" s="29" t="inlineStr">
-        <is>
-          <t>Иностранный язык             Дремлюгина Л.А.</t>
-        </is>
-      </c>
-      <c r="L13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АФХД                    Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="M13" s="29" t="inlineStr"/>
-      <c r="N13" s="30" t="inlineStr"/>
-      <c r="O13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АФХД                    Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="P13" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Бизнес - планирование          Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="Q13" s="30" t="inlineStr">
-        <is>
-          <t>МДК 01.01 Координация работы служб предприятий туризма и гостеприимства  Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="R13" s="29" t="inlineStr"/>
-      <c r="S13" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="T13" s="28" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="U13" s="28" t="inlineStr">
-        <is>
-          <t>Выполнение работ по профессии "Педикюрша"    Алексеенко Е.М.</t>
-        </is>
-      </c>
-      <c r="V13" s="28" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="W13" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Теория государства и права          Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="X13" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Теория государства и права          Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="Y13" s="32" t="inlineStr">
-        <is>
-          <t>Муниципальное право России     Лебедева М.Л.</t>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="D13" s="35" t="inlineStr"/>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ Иностранный язык в профессиональной деятельности     Дремлюгина Л.А. </t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 - 00                         МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="H13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 - 00                      МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="I13" s="20" t="inlineStr"/>
+      <c r="J13" s="20" t="inlineStr">
+        <is>
+          <t>МДК 04.01        Общий уход за пациентами       Денякина В.М.</t>
+        </is>
+      </c>
+      <c r="K13" s="36" t="inlineStr">
+        <is>
+          <t>Обществознание       Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="L13" s="20" t="inlineStr">
+        <is>
+          <t>Организация расчетов с бюджетом и внебюджетными фондами         Юркина Л.В.</t>
+        </is>
+      </c>
+      <c r="M13" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анализ ФХД         Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="N13" s="37" t="inlineStr"/>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Товароведение проовольственных и непродовольственных товаров Минибаева О.А.  </t>
+        </is>
+      </c>
+      <c r="P13" s="38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Товароведение проовольственных и непродовольственных товаров Минибаева О.А. </t>
+        </is>
+      </c>
+      <c r="Q13" s="39" t="inlineStr"/>
+      <c r="R13" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Организация рекламной деятельности в туризме           Силина И.В. </t>
+        </is>
+      </c>
+      <c r="S13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Рисунок и живопись       Щукина А.А. </t>
+        </is>
+      </c>
+      <c r="T13" s="20" t="inlineStr">
+        <is>
+          <t>Технология визажа       Шиленкова В.А.</t>
+        </is>
+      </c>
+      <c r="U13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технология косметических услуг           Джокич Э.А. </t>
+        </is>
+      </c>
+      <c r="V13" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технология коррекции тела   Байрамукова Ф.У.      </t>
+        </is>
+      </c>
+      <c r="W13" s="39" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="X13" s="37" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="Y13" s="36" t="inlineStr">
+        <is>
+          <t>Основы экологического права                   Лебедева М.Л.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="80.09999999999999" customHeight="1" thickBot="1">
-      <c r="A14" s="24" t="n"/>
-      <c r="B14" s="20" t="n">
+    <row r="14" ht="80.09999999999999" customHeight="1">
+      <c r="A14" s="25" t="n"/>
+      <c r="B14" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="25" t="n"/>
-      <c r="D14" s="25" t="n"/>
-      <c r="E14" s="25" t="n"/>
-      <c r="F14" s="25" t="n"/>
-      <c r="G14" s="25" t="n"/>
-      <c r="H14" s="25" t="n"/>
-      <c r="I14" s="25" t="n"/>
-      <c r="J14" s="16" t="n"/>
-      <c r="K14" s="25" t="n"/>
-      <c r="L14" s="25" t="n"/>
-      <c r="M14" s="25" t="n"/>
-      <c r="N14" s="33" t="n"/>
-      <c r="O14" s="25" t="n"/>
-      <c r="P14" s="34" t="n"/>
-      <c r="Q14" s="33" t="n"/>
-      <c r="R14" s="25" t="n"/>
-      <c r="S14" s="25" t="n"/>
-      <c r="T14" s="25" t="n"/>
-      <c r="U14" s="25" t="n"/>
-      <c r="V14" s="25" t="n"/>
-      <c r="W14" s="25" t="n"/>
-      <c r="X14" s="26" t="n"/>
-      <c r="Y14" s="26" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="40" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
+      <c r="I14" s="27" t="n"/>
+      <c r="J14" s="27" t="n"/>
+      <c r="K14" s="41" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="28" t="n"/>
+      <c r="Q14" s="40" t="n"/>
+      <c r="R14" s="40" t="n"/>
+      <c r="S14" s="27" t="n"/>
+      <c r="T14" s="27" t="n"/>
+      <c r="U14" s="27" t="n"/>
+      <c r="V14" s="40" t="n"/>
+      <c r="W14" s="40" t="n"/>
+      <c r="X14" s="27" t="n"/>
+      <c r="Y14" s="41" t="n"/>
     </row>
     <row r="15" ht="80.09999999999999" customHeight="1">
-      <c r="A15" s="24" t="n"/>
-      <c r="B15" s="20" t="n">
+      <c r="A15" s="25" t="n"/>
+      <c r="B15" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="D15" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология изготовления съемных пластиночных протезов при частичном отсутствии зубов</t>
-        </is>
-      </c>
-      <c r="E15" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.02 Технология изготовления несъемных и бюгельных протезов          Малервейн А.В.</t>
-        </is>
-      </c>
-      <c r="F15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="G15" s="20" t="inlineStr">
+      <c r="C15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ                 Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ Иностранный язык в профессиональной деятельности     Дремлюгина Л.А. </t>
+        </is>
+      </c>
+      <c r="E15" s="26" t="inlineStr"/>
+      <c r="F15" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ                 Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="G15" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
         </is>
       </c>
-      <c r="H15" s="20" t="inlineStr">
+      <c r="H15" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">МДК 01.01 Стоматологические заболевания и их профилактика   Абрамова Е.В.   </t>
         </is>
       </c>
-      <c r="I15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="J15" s="21" t="inlineStr">
-        <is>
-          <t>МДК 03.01 Сестринское дело в системе первичной медико - санитарной помощи         Лукашкин И.В.</t>
-        </is>
-      </c>
-      <c r="K15" s="22" t="inlineStr">
-        <is>
-          <t>Иностранный язык             Дремлюгина Л.А.</t>
-        </is>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АФХД                    Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="M15" s="22" t="inlineStr"/>
-      <c r="N15" s="35" t="inlineStr"/>
-      <c r="O15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АФХД                    Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="P15" s="36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Бизнес - планирование          Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="Q15" s="35" t="inlineStr">
-        <is>
-          <t>ЗАЧЕТ             МДК 01.01 Координация работы служб предприятий туризма и гостеприимства  Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="R15" s="22" t="inlineStr">
-        <is>
-          <t>Технология и организация туроператорской деятельности     Силина И.В.</t>
-        </is>
-      </c>
-      <c r="S15" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="T15" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="U15" s="20" t="inlineStr">
-        <is>
-          <t>Выполнение работ по профессии "Педикюрша"    Алексеенко Е.М.</t>
-        </is>
-      </c>
-      <c r="V15" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="W15" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Теория государства и права          Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="X15" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Теория государства и права          Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="Y15" s="22" t="inlineStr">
-        <is>
-          <t>ЗАЧЕТ Муниципальное право России     Лебедева М.Л.</t>
+      <c r="I15" s="43" t="inlineStr"/>
+      <c r="J15" s="26" t="inlineStr">
+        <is>
+          <t>МДК 04.01        Общий уход за пациентами       Денякина В.М.</t>
+        </is>
+      </c>
+      <c r="K15" s="44" t="inlineStr">
+        <is>
+          <t>ЭКЗАМЕН  Обществознание       Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="L15" s="26" t="inlineStr">
+        <is>
+          <t>ЗАЧЕТ Технология составления бухгалтерской отчетности       Юркина Л.В.</t>
+        </is>
+      </c>
+      <c r="M15" s="30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анализ ФХД         Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="N15" s="30" t="inlineStr"/>
+      <c r="O15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Товароведение проовольственных и непродовольственных товаров Минибаева О.А. </t>
+        </is>
+      </c>
+      <c r="P15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЩИТА КР Товароведение проовольственных и непродовольственных товаров Минибаева О.А. </t>
+        </is>
+      </c>
+      <c r="Q15" s="45" t="inlineStr"/>
+      <c r="R15" s="45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Туристское регионоведение России         Силина И.В. </t>
+        </is>
+      </c>
+      <c r="S15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПОДГОТОВКА К ЭКЗАМЕНУ  Рисунок и живопись       Щукина А.А. </t>
+        </is>
+      </c>
+      <c r="T15" s="26" t="inlineStr">
+        <is>
+          <t>Технология визажа       Шиленкова В.А.</t>
+        </is>
+      </c>
+      <c r="U15" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Технология косметических услуг           Джокич Э.А. </t>
+        </is>
+      </c>
+      <c r="V15" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПОДГОТОВКА К ЭКЗАМЕНУ  Технология коррекции тела   Байрамукова Ф.У.      </t>
+        </is>
+      </c>
+      <c r="W15" s="45" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="X15" s="30" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="Y15" s="44" t="inlineStr">
+        <is>
+          <t>Гражданский процесс    Лебедева М.Л.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="80.09999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="24" t="n"/>
-      <c r="B16" s="20" t="n">
+    <row r="16" ht="80.09999999999999" customHeight="1">
+      <c r="A16" s="25" t="n"/>
+      <c r="B16" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="25" t="n"/>
-      <c r="D16" s="25" t="n"/>
-      <c r="E16" s="25" t="n"/>
-      <c r="F16" s="25" t="n"/>
-      <c r="G16" s="25" t="n"/>
-      <c r="H16" s="25" t="n"/>
-      <c r="I16" s="25" t="n"/>
-      <c r="J16" s="16" t="n"/>
-      <c r="K16" s="25" t="n"/>
-      <c r="L16" s="25" t="n"/>
-      <c r="M16" s="25" t="n"/>
-      <c r="N16" s="33" t="n"/>
-      <c r="O16" s="25" t="n"/>
-      <c r="P16" s="34" t="n"/>
-      <c r="Q16" s="33" t="n"/>
-      <c r="R16" s="25" t="n"/>
-      <c r="S16" s="25" t="n"/>
-      <c r="T16" s="25" t="n"/>
-      <c r="U16" s="25" t="n"/>
-      <c r="V16" s="25" t="n"/>
-      <c r="W16" s="25" t="n"/>
-      <c r="X16" s="25" t="n"/>
-      <c r="Y16" s="25" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="41" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="40" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="41" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="40" t="n"/>
+      <c r="R16" s="40" t="n"/>
+      <c r="S16" s="27" t="n"/>
+      <c r="T16" s="27" t="n"/>
+      <c r="U16" s="27" t="n"/>
+      <c r="V16" s="40" t="n"/>
+      <c r="W16" s="40" t="n"/>
+      <c r="X16" s="27" t="n"/>
+      <c r="Y16" s="41" t="n"/>
     </row>
     <row r="17" ht="80.09999999999999" customHeight="1">
-      <c r="A17" s="24" t="n"/>
-      <c r="B17" s="20" t="n">
+      <c r="A17" s="25" t="n"/>
+      <c r="B17" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="D17" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология изготовления съемных пластиночных протезов при частичном отсутствии зубов</t>
-        </is>
-      </c>
-      <c r="E17" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.02 Технология изготовления несъемных и бюгельных протезов          Малервейн А.В.</t>
-        </is>
-      </c>
-      <c r="F17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="G17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                         Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                         Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="I17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="J17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 03.02 Здоровый образ жизни и профилактика заболеваний в разные возрастные периоды </t>
-        </is>
-      </c>
-      <c r="K17" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Экономика        Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>Основы социологии и политологии       Козлов Д.В.</t>
-        </is>
-      </c>
-      <c r="M17" s="22" t="inlineStr"/>
-      <c r="N17" s="35" t="inlineStr"/>
-      <c r="O17" s="20" t="inlineStr">
-        <is>
-          <t>Маркетинг     Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="P17" s="36" t="inlineStr"/>
-      <c r="Q17" s="35" t="inlineStr"/>
-      <c r="R17" s="22" t="inlineStr">
-        <is>
-          <t>Маркетинговые технологии       Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="S17" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="T17" s="20" t="inlineStr"/>
-      <c r="U17" s="20" t="inlineStr">
-        <is>
-          <t>Выполнение работ по профессии "Педикюрша"    Алексеенко Е.М.</t>
-        </is>
-      </c>
-      <c r="V17" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="W17" s="22" t="inlineStr">
-        <is>
-          <t>Эколог.основы природопользования                             Иванова Ж.В.</t>
-        </is>
-      </c>
-      <c r="X17" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Трудовое  право            Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="Y17" s="22" t="inlineStr">
-        <is>
-          <t>Право социального обеспечения    Лебедева М.Л.</t>
+      <c r="C17" s="26" t="inlineStr"/>
+      <c r="D17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технология изготовления несъемных и бюгельных протезов           Чистов Д.В. </t>
+        </is>
+      </c>
+      <c r="E17" s="26" t="inlineStr"/>
+      <c r="F17" s="42" t="inlineStr"/>
+      <c r="G17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                      Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="H17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                      Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="I17" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="J17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 04.02  Сестринский уход и реабилитация пациентов терапевтического профиля разных возрастных групп Денякина В.М.       </t>
+        </is>
+      </c>
+      <c r="K17" s="44" t="inlineStr"/>
+      <c r="L17" s="26" t="inlineStr">
+        <is>
+          <t>Основы анализа бухгалтерской отчетности      Юркина Л.В.</t>
+        </is>
+      </c>
+      <c r="M17" s="30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Финансы, налоги и налогообложение  Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="N17" s="30" t="inlineStr">
+        <is>
+          <t>Правовое обеспечение профессиональной деятельности      Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="O17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Финансы, налоги и налогообложение  Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="P17" s="26" t="inlineStr">
+        <is>
+          <t>Правовое обеспечение профессиональной деятельности      Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="Q17" s="45" t="inlineStr"/>
+      <c r="R17" s="45" t="inlineStr"/>
+      <c r="S17" s="26" t="inlineStr">
+        <is>
+          <t>ЗАЧЕТ                 Иностранный язык в профессиональной деятельности     Дремлюгина Л.А.</t>
+        </is>
+      </c>
+      <c r="T17" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИТОГОВОЕ ЗАНЯТИЕ Технология коррекции тела   Байрамукова Ф.У.      </t>
+        </is>
+      </c>
+      <c r="U17" s="26" t="inlineStr">
+        <is>
+          <t>Технология визажа       Шиленкова В.А.</t>
+        </is>
+      </c>
+      <c r="V17" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЩИТА КУРСОВЫХ РАБОТ Технология косметических услуг           Джокич Э.А. </t>
+        </is>
+      </c>
+      <c r="W17" s="45" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="X17" s="30" t="inlineStr">
+        <is>
+          <t>Семейное право    Баринов С.В.</t>
+        </is>
+      </c>
+      <c r="Y17" s="44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЩИТА КР Право социального обеспечения    Лебедева М.Л.  </t>
         </is>
       </c>
     </row>
     <row r="18" ht="80.09999999999999" customHeight="1">
-      <c r="A18" s="24" t="n"/>
-      <c r="B18" s="20" t="n">
+      <c r="A18" s="25" t="n"/>
+      <c r="B18" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="C18" s="25" t="n"/>
-      <c r="D18" s="25" t="n"/>
-      <c r="E18" s="25" t="n"/>
-      <c r="F18" s="25" t="n"/>
-      <c r="G18" s="25" t="n"/>
-      <c r="H18" s="25" t="n"/>
-      <c r="I18" s="25" t="n"/>
-      <c r="J18" s="25" t="n"/>
-      <c r="K18" s="25" t="n"/>
-      <c r="L18" s="25" t="n"/>
-      <c r="M18" s="25" t="n"/>
-      <c r="N18" s="33" t="n"/>
-      <c r="O18" s="25" t="n"/>
-      <c r="P18" s="34" t="n"/>
-      <c r="Q18" s="33" t="n"/>
-      <c r="R18" s="25" t="n"/>
-      <c r="S18" s="25" t="n"/>
-      <c r="T18" s="25" t="n"/>
-      <c r="U18" s="25" t="n"/>
-      <c r="V18" s="25" t="n"/>
-      <c r="W18" s="25" t="n"/>
-      <c r="X18" s="25" t="n"/>
-      <c r="Y18" s="25" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="41" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="40" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="41" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="40" t="n"/>
+      <c r="R18" s="40" t="n"/>
+      <c r="S18" s="27" t="n"/>
+      <c r="T18" s="27" t="n"/>
+      <c r="U18" s="27" t="n"/>
+      <c r="V18" s="40" t="n"/>
+      <c r="W18" s="40" t="n"/>
+      <c r="X18" s="27" t="n"/>
+      <c r="Y18" s="41" t="n"/>
     </row>
     <row r="19" ht="80.09999999999999" customHeight="1">
-      <c r="A19" s="24" t="n"/>
-      <c r="B19" s="20" t="n">
+      <c r="A19" s="25" t="n"/>
+      <c r="B19" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="D19" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология изготовления съемных пластиночных протезов при частичном отсутствии зубов</t>
-        </is>
-      </c>
-      <c r="E19" s="20" t="inlineStr">
-        <is>
-          <t>МДК 02.02 Технология изготовления несъемных и бюгельных протезов          Малервейн А.В.</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="G19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                           Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                           Абрамова Е.В.   </t>
-        </is>
-      </c>
-      <c r="I19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="J19" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">МДК 03.02 Здоровый образ жизни и профилактика заболеваний в разные возрастные периоды </t>
-        </is>
-      </c>
-      <c r="K19" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Основы безопасности и защиты Родины      Иванов В.В. </t>
-        </is>
-      </c>
-      <c r="L19" s="21" t="inlineStr">
-        <is>
-          <t>ЗАЧЕТ              Основы социологии и политологии       Козлов Д.В.</t>
-        </is>
-      </c>
-      <c r="M19" s="37" t="inlineStr"/>
-      <c r="N19" s="38" t="inlineStr"/>
-      <c r="O19" s="20" t="inlineStr">
-        <is>
-          <t>ЗАЧЕТ                     Маркетинг     Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="P19" s="36" t="inlineStr"/>
-      <c r="Q19" s="35" t="inlineStr"/>
-      <c r="R19" s="22" t="inlineStr">
-        <is>
-          <t>ЗАЧЕТ Маркетинговые технологии       Систейкина Е.Е.</t>
-        </is>
-      </c>
-      <c r="S19" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Анатомия и физиология человека         Маклаков И.А. </t>
-        </is>
-      </c>
-      <c r="T19" s="21" t="inlineStr"/>
-      <c r="U19" s="21" t="inlineStr">
-        <is>
-          <t>МДК 02.01 Технология косметических услуг                       Джокич Э.А.</t>
-        </is>
-      </c>
-      <c r="V19" s="21" t="inlineStr"/>
-      <c r="W19" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Эколог.основы природопользования                             Иванова Ж.В. </t>
-        </is>
-      </c>
-      <c r="X19" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИТОГОВОЕ ЗАНЯТИЕ Трудовое  право            Баринов С.В. </t>
-        </is>
-      </c>
-      <c r="Y19" s="23" t="inlineStr">
-        <is>
-          <t>ИТОГОВОЕ ЗАНЯТИЕ               Право социального обеспечения    Лебедева М.Л.</t>
+      <c r="C19" s="26" t="inlineStr"/>
+      <c r="D19" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технология изготовления несъемных и бюгельных протезов           Чистов Д.В. </t>
+        </is>
+      </c>
+      <c r="E19" s="29" t="inlineStr"/>
+      <c r="F19" s="42" t="inlineStr"/>
+      <c r="G19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                      Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="H19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 02.01 Гигиена полости рта                      Абрамова Е.В.   </t>
+        </is>
+      </c>
+      <c r="I19" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ                     Основы микробиологии и инфекционная безопасность      Маклаков И.А. </t>
+        </is>
+      </c>
+      <c r="J19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">МДК 04.03 Сестринский уход за пациентами хирургического профиля      Денякина В.М.   </t>
+        </is>
+      </c>
+      <c r="K19" s="44" t="inlineStr"/>
+      <c r="L19" s="29" t="inlineStr">
+        <is>
+          <t>ЗАЧЕТ        Основы анализа бухгалтерской отчетности      Юркина Л.В.</t>
+        </is>
+      </c>
+      <c r="M19" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Финансы, налоги и налогообложение  Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="N19" s="32" t="inlineStr">
+        <is>
+          <t>ЗАЧЕТ               Правовое обеспечение профессиональной деятельности      Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="O19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Финансы, налоги и налогообложение  Иванов В.В. </t>
+        </is>
+      </c>
+      <c r="P19" s="29" t="inlineStr">
+        <is>
+          <t>ЗАЧЕТ               Правовое обеспечение профессиональной деятельности      Кожевников В.Е.</t>
+        </is>
+      </c>
+      <c r="Q19" s="45" t="inlineStr"/>
+      <c r="R19" s="45" t="inlineStr"/>
+      <c r="S19" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ЗАЧЕТ                   Деловые и профессиональные коммуникации Иванова Ж.В. </t>
+        </is>
+      </c>
+      <c r="T19" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Технология коррекции тела   Байрамукова Ф.У.      </t>
+        </is>
+      </c>
+      <c r="U19" s="29" t="inlineStr">
+        <is>
+          <t>Технология визажа       Шиленкова В.А.</t>
+        </is>
+      </c>
+      <c r="V19" s="46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПОДГОТОВКА К ЭКЗАМЕНУ Технология косметических услуг           Джокич Э.А. </t>
+        </is>
+      </c>
+      <c r="W19" s="45" t="inlineStr"/>
+      <c r="X19" s="32" t="inlineStr"/>
+      <c r="Y19" s="47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПОДГОТОВКА К ЭКЗАМЕНУ  Право социального обеспечения    Лебедева М.Л.  </t>
         </is>
       </c>
     </row>
     <row r="20" ht="80.09999999999999" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="n"/>
-      <c r="B20" s="21" t="n">
+      <c r="B20" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="25" t="n"/>
-      <c r="D20" s="25" t="n"/>
-      <c r="E20" s="25" t="n"/>
-      <c r="F20" s="25" t="n"/>
-      <c r="G20" s="25" t="n"/>
-      <c r="H20" s="25" t="n"/>
-      <c r="I20" s="25" t="n"/>
-      <c r="J20" s="16" t="n"/>
-      <c r="K20" s="25" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="41" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="40" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="41" t="n"/>
       <c r="L20" s="16" t="n"/>
       <c r="M20" s="16" t="n"/>
-      <c r="N20" s="39" t="n"/>
-      <c r="O20" s="25" t="n"/>
-      <c r="P20" s="34" t="n"/>
-      <c r="Q20" s="33" t="n"/>
-      <c r="R20" s="25" t="n"/>
-      <c r="S20" s="25" t="n"/>
+      <c r="N20" s="16" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="16" t="n"/>
+      <c r="Q20" s="40" t="n"/>
+      <c r="R20" s="40" t="n"/>
+      <c r="S20" s="27" t="n"/>
       <c r="T20" s="16" t="n"/>
       <c r="U20" s="16" t="n"/>
-      <c r="V20" s="16" t="n"/>
-      <c r="W20" s="25" t="n"/>
-      <c r="X20" s="25" t="n"/>
-      <c r="Y20" s="26" t="n"/>
+      <c r="V20" s="48" t="n"/>
+      <c r="W20" s="40" t="n"/>
+      <c r="X20" s="16" t="n"/>
+      <c r="Y20" s="17" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="1" t="inlineStr"/>
@@ -2814,14 +2883,14 @@
       <c r="Y28" s="1" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="171">
+  <mergeCells count="169">
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H11:H12"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="R15:R16"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="Y19:Y20"/>
     <mergeCell ref="D13:D14"/>
@@ -2829,50 +2898,49 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="W11:W12"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="T11:T12"/>
     <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="T13:T14"/>
-    <mergeCell ref="O17:O18"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="V7:V8"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="V7:V8"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="T15:T16"/>
-    <mergeCell ref="O19:O20"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L6:P6"/>
     <mergeCell ref="W13:W14"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
     <mergeCell ref="R19:R20"/>
-    <mergeCell ref="W15:W16"/>
     <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="S7:S8"/>
+    <mergeCell ref="U7:U8"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="V9:V10"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="M13:M14"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="T17:T18"/>
     <mergeCell ref="Y7:Y8"/>
@@ -2882,15 +2950,15 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="P13:P14"/>
-    <mergeCell ref="K17:K18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="W17:W18"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="N15:N16"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="K19:K20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="U19:U20"/>
     <mergeCell ref="G9:G10"/>
@@ -2899,74 +2967,73 @@
     <mergeCell ref="O2:Y2"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="R7:R8"/>
     <mergeCell ref="Q4:Y4"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="S13:S14"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="U13:U14"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
     <mergeCell ref="N19:N20"/>
-    <mergeCell ref="S15:S16"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Y13:Y14"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O11:O12"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="T19:T20"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="V13:V14"/>
+    <mergeCell ref="S17:S18"/>
     <mergeCell ref="X13:X14"/>
-    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X7:X8"/>
     <mergeCell ref="U17:U18"/>
-    <mergeCell ref="X7:X8"/>
     <mergeCell ref="V19:V20"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="J15:J16"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="S19:S20"/>
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="S19:S20"/>
     <mergeCell ref="Y17:Y18"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="K13:K14"/>
@@ -2975,10 +3042,10 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="O13:O14"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="V17:V18"/>
     <mergeCell ref="C15:C16"/>
